--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SC2\SC2 Projects\UiPath\RE_InvestmentReport\RE_InvestmentReport\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SC2\SC2 Projects\UiPath\RE_InvestmentReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E5B1F-D297-4294-A948-3D96E8C18514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67718B-9FA2-43B0-9D8E-B5789337740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,78 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>SettingsNameB</t>
+  </si>
+  <si>
+    <t>SettingsNameA</t>
+  </si>
+  <si>
+    <t>SettingsNameC</t>
+  </si>
+  <si>
+    <t>SettingsNameD</t>
+  </si>
+  <si>
+    <t>SettingsValueA</t>
+  </si>
+  <si>
+    <t>SettingsValueB</t>
+  </si>
+  <si>
+    <t>SettingsValueC</t>
+  </si>
+  <si>
+    <t>SettingsValueD</t>
+  </si>
+  <si>
+    <t>SettingsDescriptionA</t>
+  </si>
+  <si>
+    <t>SettingsDescriptionB</t>
+  </si>
+  <si>
+    <t>SettingsDescriptionC</t>
+  </si>
+  <si>
+    <t>SettingsDescriptionD</t>
+  </si>
+  <si>
+    <t>ConstantsNameA</t>
+  </si>
+  <si>
+    <t>ConstantsValueA</t>
+  </si>
+  <si>
+    <t>ConstantsDescriptionA</t>
+  </si>
+  <si>
+    <t>ConstantsNameB</t>
+  </si>
+  <si>
+    <t>ConstantsValueB</t>
+  </si>
+  <si>
+    <t>ConstantsDescriptionB</t>
+  </si>
+  <si>
+    <t>ConstantsNameC</t>
+  </si>
+  <si>
+    <t>ConstantsValueC</t>
+  </si>
+  <si>
+    <t>ConstantsDescriptionC</t>
+  </si>
+  <si>
+    <t>ConstantsNameD</t>
+  </si>
+  <si>
+    <t>ConstantsValueD</t>
+  </si>
+  <si>
+    <t>ConstantsDescriptionD</t>
   </si>
 </sst>
 </file>
@@ -371,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917EF79-360F-400B-B13E-AB6FB14FBA6E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,6 +467,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -403,10 +524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80479B1-E805-49D1-9E77-32DDA08785D4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +546,50 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
